--- a/data/trans_dic/P10_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P10_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con datos de teléfono móvil</t>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>77,86%</t>
+          <t>81,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>71,14%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,26%</t>
+          <t>76,36%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>66,17; 84,47</t>
+          <t>66,7; 92,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,27; 86,25</t>
+          <t>67,93; 93,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,71; 79,45</t>
+          <t>61,84; 87,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,8; 79,34</t>
+          <t>55,73; 82,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,74; 79,5</t>
+          <t>68,29; 86,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,65; 80,39</t>
+          <t>66,29; 85,98</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,18%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>89,72%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,55; 93,52</t>
+          <t>84,75; 94,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,81; 93,56</t>
+          <t>85,05; 94,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,85; 93,11</t>
+          <t>83,21; 92,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,72; 92,94</t>
+          <t>83,65; 92,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,5; 92,63</t>
+          <t>85,87; 92,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,39; 92,75</t>
+          <t>86,07; 92,66</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>89,46%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,63; 94,31</t>
+          <t>78,59; 93,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,2; 93,2</t>
+          <t>76,23; 93,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,73; 94,85</t>
+          <t>88,1; 95,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,14; 94,39</t>
+          <t>85,42; 94,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,53; 93,4</t>
+          <t>85,44; 93,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,88; 92,66</t>
+          <t>83,55; 92,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,71; 90,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,18; 90,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,77; 89,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,48; 89,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,74; 89,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,21; 89,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88,55%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>88,55%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>88,4%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>87,03%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>88,47%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>83,96; 91,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>83,49; 92,01</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>84,87; 91,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>83,35; 89,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85,85; 90,73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>85,1; 90,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83526</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>105595</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>89426</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>101605</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>172952</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>207199</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>68929; 95123</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>87550; 120727</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>72856; 102747</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79403; 118157</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>151018; 191163</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>179876; 233327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>331652</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>390497</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>345242</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>411517</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>676894</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>802014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>310181; 345872</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>365284; 407854</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>325050; 362527</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>388522; 431571</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>649714; 698286</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>769447; 828372</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>253653</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>293129</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>332725</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>387918</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>586378</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>681048</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>224713; 268704</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>253752; 312331</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>316817; 344790</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>365942; 404860</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>551575; 606037</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>636060; 707482</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>625.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>668831</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>789221</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>767393</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>901039</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1436224</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1690261</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>634158; 693216</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>744118; 820036</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>736758; 790854</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>862967; 931674</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1393699; 1472901</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1639504; 1736309</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>